--- a/biology/Botanique/Bulbophyllum_resupinatum/Bulbophyllum_resupinatum.xlsx
+++ b/biology/Botanique/Bulbophyllum_resupinatum/Bulbophyllum_resupinatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bulbophyllum resupinatum Ridl. est une espèce d'orchidées du genre Bulbophyllum, présente dans de nombreux pays d'Afrique tropicale.
 </t>
@@ -511,14 +523,16 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (6 décembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (6 décembre 2017) :
 variété Bulbophyllum resupinatum var. filiforme
 variété Bulbophyllum resupinatum var. resupinatum
-Selon The Plant List            (6 décembre 2017)[1] :
+Selon The Plant List            (6 décembre 2017) :
 variété Bulbophyllum resupinatum var. filiforme (Kraenzl.) J.J.Verm.
-Selon Tropicos                                           (6 décembre 2017)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Bulbophyllum resupinatum var. filiforme J.J. Verm.
 variété Bulbophyllum resupinatum var. resupinatum</t>
         </is>
@@ -548,9 +562,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce filiforme a été observée en Sierra Leone, au Liberia, en Côte d'Ivoire, au Cameroun, au Gabon, en République du Congo et en République démocratique du Congo[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce filiforme a été observée en Sierra Leone, au Liberia, en Côte d'Ivoire, au Cameroun, au Gabon, en République du Congo et en République démocratique du Congo.
 </t>
         </is>
       </c>
